--- a/data/skeletonDivergence/output/initialMatch/initialMatchplotData.xlsx
+++ b/data/skeletonDivergence/output/initialMatch/initialMatchplotData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>uniqueFraction_binDists</t>
   </si>
@@ -33,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -59,23 +59,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -365,34 +364,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="23.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -406,7 +405,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3">
         <v>2500</v>
       </c>
@@ -420,7 +419,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4">
         <v>5000</v>
       </c>
@@ -434,7 +433,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5">
         <v>7500</v>
       </c>
@@ -448,7 +447,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -462,7 +461,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7">
         <v>12500</v>
       </c>
@@ -476,7 +475,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8">
         <v>15000</v>
       </c>
@@ -490,7 +489,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9">
         <v>17500</v>
       </c>
@@ -504,7 +503,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -518,7 +517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11">
         <v>22500</v>
       </c>
@@ -532,7 +531,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12">
         <v>25000</v>
       </c>
@@ -546,7 +545,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13">
         <v>27500</v>
       </c>
@@ -560,7 +559,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14">
         <v>30000</v>
       </c>
@@ -574,7 +573,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15">
         <v>32500</v>
       </c>
@@ -588,7 +587,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16">
         <v>35000</v>
       </c>
@@ -602,7 +601,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17">
         <v>37500</v>
       </c>
@@ -616,7 +615,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18">
         <v>40000</v>
       </c>
@@ -630,7 +629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19">
         <v>42500</v>
       </c>
@@ -644,7 +643,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20">
         <v>45000</v>
       </c>
@@ -658,7 +657,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21">
         <v>47500</v>
       </c>
@@ -672,7 +671,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22">
         <v>50000</v>
       </c>
@@ -686,7 +685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23">
         <v>52500</v>
       </c>
@@ -700,7 +699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24">
         <v>55000</v>
       </c>
@@ -714,7 +713,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25">
         <v>57500</v>
       </c>
@@ -728,7 +727,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26">
         <v>60000</v>
       </c>
@@ -742,7 +741,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27">
         <v>62500</v>
       </c>
@@ -756,7 +755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28">
         <v>65000</v>
       </c>
@@ -770,7 +769,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29">
         <v>67500</v>
       </c>
@@ -784,7 +783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30">
         <v>70000</v>
       </c>
@@ -798,7 +797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31">
         <v>72500</v>
       </c>
@@ -812,7 +811,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32">
         <v>75000</v>
       </c>
@@ -826,7 +825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33">
         <v>77500</v>
       </c>
@@ -840,7 +839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34">
         <v>80000</v>
       </c>
@@ -854,7 +853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35">
         <v>82500</v>
       </c>
@@ -868,7 +867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36">
         <v>85000</v>
       </c>
@@ -882,7 +881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37">
         <v>87500</v>
       </c>
@@ -896,7 +895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38">
         <v>90000</v>
       </c>
@@ -910,7 +909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39">
         <v>92500</v>
       </c>
@@ -924,7 +923,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40">
         <v>95000</v>
       </c>
@@ -938,7 +937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41">
         <v>97500</v>
       </c>
@@ -952,7 +951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42">
         <v>100000</v>
       </c>
@@ -966,7 +965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="C43">
         <v>10644.861757599298</v>
       </c>
@@ -974,7 +973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="C44">
         <v>10974.825849005532</v>
       </c>
@@ -982,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="C45">
         <v>11224.899752746123</v>
       </c>
@@ -990,7 +989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="C46">
         <v>11410.834327147162</v>
       </c>
@@ -998,7 +997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="C47">
         <v>11665.496378157255</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="C48">
         <v>11825.246956237321</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="C49">
         <v>12169.440725292186</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="C50">
         <v>12202.497281261734</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="C51">
         <v>12607.946746651494</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="C52">
         <v>12794.148477300081</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="C53">
         <v>12901.90255018228</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="C54">
         <v>13330.120015663775</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="C55">
         <v>13439.668924612688</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="C56">
         <v>13780.425526666439</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="C57">
         <v>13963.259267090903</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="C58">
         <v>14361.015452954573</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="C59">
         <v>14443.557551185235</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="C60">
         <v>14940.862816959399</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="C61">
         <v>15042.134101197211</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="C62">
         <v>15475.170575499322</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="C63">
         <v>15733.9874565604</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="C64">
         <v>15924.585571800604</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="C65">
         <v>16376.151996998564</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="C66">
         <v>16722.002647577832</v>
       </c>
@@ -1158,7 +1157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="C67">
         <v>17008.583585942717</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="C68">
         <v>17258.875254430692</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="C69">
         <v>17605.488300731678</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="C70">
         <v>17779.002175510304</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="C71">
         <v>18114.307294423379</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="C72">
         <v>18505.485833168499</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="C73">
         <v>19254.426974303857</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="C74">
         <v>19320.010249479685</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="C75">
         <v>19748.404896031479</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="C76">
         <v>20264.887717626269</v>
       </c>
@@ -1238,7 +1237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="C77">
         <v>20350.383685542638</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="C78">
         <v>20823.395467291113</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="C79">
         <v>21290.066784639264</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="C80">
         <v>21527.83825877554</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="C81">
         <v>21941.226391320972</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="C82">
         <v>22088.186141808928</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="C83">
         <v>22275.599338073935</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="C84">
         <v>22553.649265269691</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="C85">
         <v>22600.703350081829</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="C86">
         <v>23106.528783527829</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="C87">
         <v>23213.653151746716</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="C88">
         <v>23921.506170406581</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="C89">
         <v>24138.455517982089</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="C90">
         <v>24343.572370118563</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="C91">
         <v>24609.15816276534</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="C92">
         <v>24790.253888106916</v>
       </c>
@@ -1366,7 +1365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="C93">
         <v>24876.184750463646</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="C94">
         <v>25054.10390376794</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="C95">
         <v>25296.488582030513</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="C96">
         <v>25530.459673918915</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="C97">
         <v>25680.326301883317</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="C98">
         <v>26066.79316641769</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="C99">
         <v>26374.75068102825</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="C100">
         <v>26572.341479576091</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="C101">
         <v>27025.777382787714</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="C102">
         <v>27277.891700114949</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="C103">
         <v>27726.710381348883</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="C104">
         <v>28149.301961647288</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="C105">
         <v>28241.737376358418</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="C106">
         <v>28875.974438913749</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="C107">
         <v>29092.185468541207</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="C108">
         <v>29610.227045262589</v>
       </c>
@@ -1494,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="C109">
         <v>29750.68623507028</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="C110">
         <v>30314.393301981156</v>
       </c>
@@ -1510,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="C111">
         <v>30697.333499442586</v>
       </c>
@@ -1518,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="C112">
         <v>30955.303591417094</v>
       </c>
@@ -1526,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="C113">
         <v>31540.273921981083</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="C114">
         <v>31547.182368332044</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="C115">
         <v>31947.958386651251</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="C116">
         <v>32210.827308592994</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="C117">
         <v>32369.262985097452</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="C118">
         <v>32738.266429656902</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="C119">
         <v>32755.933441793411</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="C120">
         <v>33372.298764310501</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="C121">
         <v>33633.479905713</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="C122">
         <v>34111.368806754152</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="C123">
         <v>34276.394555530489</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="C124">
         <v>34595.63577239187</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="C125">
         <v>35019.017483418924</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="C126">
         <v>35325.266335018619</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="C127">
         <v>35586.952612057132</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="C128">
         <v>35864.71331162149</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="C129">
         <v>36256.196012819659</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="C130">
         <v>36263.24514162515</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="C131">
         <v>36686.336348455407</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="C132">
         <v>36870.929753354474</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="C133">
         <v>37207.798143292493</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="C134">
         <v>37515.144661237813</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="C135">
         <v>37770.700876525974</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="C136">
         <v>38124.050790859044</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="C137">
         <v>38218.803997801915</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="C138">
         <v>38788.131671097537</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="C139">
         <v>38974.637757844524</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="C140">
         <v>39366.51074063842</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="C141">
         <v>39576.43080764106</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="C142">
         <v>39927.501009705076</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="C143">
         <v>40245.850590211157</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="C144">
         <v>40576.52847749299</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="C145">
         <v>40961.333903436294</v>
       </c>
@@ -1790,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="C146">
         <v>41309.30226631285</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="C147">
         <v>41576.769972627742</v>
       </c>
@@ -1806,7 +1805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="C148">
         <v>41958.258372625525</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="C149">
         <v>42354.953269718055</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="C150">
         <v>42484.099815135545</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="C151">
         <v>43131.500887421018</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="C152">
         <v>43998.822044232045</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="C153">
         <v>44683.700266007516</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="C154">
         <v>45354.005383851167</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="C155">
         <v>45961.79576631009</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="C156">
         <v>46681.668151050471</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="C157">
         <v>47458.496750318591</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="C158">
         <v>48267.754228014383</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="C159">
         <v>49289.282251166936</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="C160">
         <v>50271.522325133541</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="C161">
         <v>51091.092809420312</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="C162">
         <v>52025.515007742113</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="C163">
         <v>52855.090506190601</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="C164">
         <v>53773.657829461452</v>
       </c>
@@ -1942,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="C165">
         <v>54462.157877733785</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="C166">
         <v>55148.473341915822</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="C167">
         <v>55771.556372860883</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="C168">
         <v>56458.169081145374</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="C169">
         <v>56896.411358974125</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="C170">
         <v>57427.854865108799</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="C171">
         <v>57969.598943680816</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="C172">
         <v>58648.788072920994</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="C173">
         <v>59243.162531721748</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="C174">
         <v>59876.068991476051</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="C175">
         <v>60224.50033931373</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="C176">
         <v>60904.182828899364</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="C177">
         <v>61542.259725570686</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="C178">
         <v>62176.249903615128</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="C179">
         <v>63007.635113481287</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="C180">
         <v>63736.198031624073</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="C181">
         <v>64478.844741884139</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="C182">
         <v>65066.110714626244</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="C183">
         <v>65754.745597828907</v>
       </c>
@@ -2100,24 +2099,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
